--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.6966009557516</v>
+        <v>42.517849</v>
       </c>
       <c r="H2">
-        <v>10.6966009557516</v>
+        <v>127.553547</v>
       </c>
       <c r="I2">
-        <v>0.005997192074151014</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="J2">
-        <v>0.005997192074151014</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0282908737966</v>
+        <v>25.94532566666667</v>
       </c>
       <c r="N2">
-        <v>10.0282908737966</v>
+        <v>77.835977</v>
       </c>
       <c r="O2">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="P2">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="Q2">
-        <v>107.2686257452078</v>
+        <v>1103.139438951158</v>
       </c>
       <c r="R2">
-        <v>107.2686257452078</v>
+        <v>9928.254950560418</v>
       </c>
       <c r="S2">
-        <v>0.001890771093878781</v>
+        <v>0.01248666583944043</v>
       </c>
       <c r="T2">
-        <v>0.001890771093878781</v>
+        <v>0.01248666583944043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.6966009557516</v>
+        <v>42.517849</v>
       </c>
       <c r="H3">
-        <v>10.6966009557516</v>
+        <v>127.553547</v>
       </c>
       <c r="I3">
-        <v>0.005997192074151014</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="J3">
-        <v>0.005997192074151014</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.4999893440293</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N3">
-        <v>18.4999893440293</v>
+        <v>55.542812</v>
       </c>
       <c r="O3">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210787</v>
       </c>
       <c r="P3">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210786</v>
       </c>
       <c r="Q3">
-        <v>197.8870036987382</v>
+        <v>787.1869645504627</v>
       </c>
       <c r="R3">
-        <v>197.8870036987382</v>
+        <v>7084.682680954164</v>
       </c>
       <c r="S3">
-        <v>0.003488056492273774</v>
+        <v>0.008910333755133079</v>
       </c>
       <c r="T3">
-        <v>0.003488056492273774</v>
+        <v>0.008910333755133075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.6966009557516</v>
+        <v>42.517849</v>
       </c>
       <c r="H4">
-        <v>10.6966009557516</v>
+        <v>127.553547</v>
       </c>
       <c r="I4">
-        <v>0.005997192074151014</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="J4">
-        <v>0.005997192074151014</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.27968783304893</v>
+        <v>3.571174000000001</v>
       </c>
       <c r="N4">
-        <v>3.27968783304893</v>
+        <v>10.713522</v>
       </c>
       <c r="O4">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827505</v>
       </c>
       <c r="P4">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827504</v>
       </c>
       <c r="Q4">
-        <v>35.08151200955808</v>
+        <v>151.838636884726</v>
       </c>
       <c r="R4">
-        <v>35.08151200955808</v>
+        <v>1366.547731962534</v>
       </c>
       <c r="S4">
-        <v>0.0006183644879984591</v>
+        <v>0.001718693261568407</v>
       </c>
       <c r="T4">
-        <v>0.0006183644879984591</v>
+        <v>0.001718693261568407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1639.33485019011</v>
+        <v>1644.738728666666</v>
       </c>
       <c r="H5">
-        <v>1639.33485019011</v>
+        <v>4934.216186</v>
       </c>
       <c r="I5">
-        <v>0.9191149610150957</v>
+        <v>0.8941956419399297</v>
       </c>
       <c r="J5">
-        <v>0.9191149610150957</v>
+        <v>0.8941956419399296</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0282908737966</v>
+        <v>25.94532566666667</v>
       </c>
       <c r="N5">
-        <v>10.0282908737966</v>
+        <v>77.835977</v>
       </c>
       <c r="O5">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="P5">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="Q5">
-        <v>16439.7267172582</v>
+        <v>42673.28195183596</v>
       </c>
       <c r="R5">
-        <v>16439.7267172582</v>
+        <v>384059.5375665237</v>
       </c>
       <c r="S5">
-        <v>0.28977494446597</v>
+        <v>0.4830277961156206</v>
       </c>
       <c r="T5">
-        <v>0.28977494446597</v>
+        <v>0.4830277961156205</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1639.33485019011</v>
+        <v>1644.738728666666</v>
       </c>
       <c r="H6">
-        <v>1639.33485019011</v>
+        <v>4934.216186</v>
       </c>
       <c r="I6">
-        <v>0.9191149610150957</v>
+        <v>0.8941956419399297</v>
       </c>
       <c r="J6">
-        <v>0.9191149610150957</v>
+        <v>0.8941956419399296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.4999893440293</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N6">
-        <v>18.4999893440293</v>
+        <v>55.542812</v>
       </c>
       <c r="O6">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210787</v>
       </c>
       <c r="P6">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210786</v>
       </c>
       <c r="Q6">
-        <v>30327.6772598129</v>
+        <v>30451.13799848389</v>
       </c>
       <c r="R6">
-        <v>30327.6772598129</v>
+        <v>274060.241986355</v>
       </c>
       <c r="S6">
-        <v>0.5345709904361375</v>
+        <v>0.3446827945697174</v>
       </c>
       <c r="T6">
-        <v>0.5345709904361375</v>
+        <v>0.3446827945697173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1639.33485019011</v>
+        <v>1644.738728666666</v>
       </c>
       <c r="H7">
-        <v>1639.33485019011</v>
+        <v>4934.216186</v>
       </c>
       <c r="I7">
-        <v>0.9191149610150957</v>
+        <v>0.8941956419399297</v>
       </c>
       <c r="J7">
-        <v>0.9191149610150957</v>
+        <v>0.8941956419399296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.27968783304893</v>
+        <v>3.571174000000001</v>
       </c>
       <c r="N7">
-        <v>3.27968783304893</v>
+        <v>10.713522</v>
       </c>
       <c r="O7">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827505</v>
       </c>
       <c r="P7">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827504</v>
       </c>
       <c r="Q7">
-        <v>5376.506562461595</v>
+        <v>5873.648184607455</v>
       </c>
       <c r="R7">
-        <v>5376.506562461595</v>
+        <v>52862.83366146709</v>
       </c>
       <c r="S7">
-        <v>0.09476902611298821</v>
+        <v>0.06648505125459166</v>
       </c>
       <c r="T7">
-        <v>0.09476902611298821</v>
+        <v>0.06648505125459163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>133.570078285869</v>
+        <v>152.093394</v>
       </c>
       <c r="H8">
-        <v>133.570078285869</v>
+        <v>456.280182</v>
       </c>
       <c r="I8">
-        <v>0.07488784691075336</v>
+        <v>0.08268866520392831</v>
       </c>
       <c r="J8">
-        <v>0.07488784691075336</v>
+        <v>0.0826886652039283</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.0282908737966</v>
+        <v>25.94532566666667</v>
       </c>
       <c r="N8">
-        <v>10.0282908737966</v>
+        <v>77.835977</v>
       </c>
       <c r="O8">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="P8">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="Q8">
-        <v>1339.479597086477</v>
+        <v>3946.112639078646</v>
       </c>
       <c r="R8">
-        <v>1339.479597086477</v>
+        <v>35515.01375170782</v>
       </c>
       <c r="S8">
-        <v>0.02361034538679782</v>
+        <v>0.04466687360558513</v>
       </c>
       <c r="T8">
-        <v>0.02361034538679782</v>
+        <v>0.04466687360558512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>133.570078285869</v>
+        <v>152.093394</v>
       </c>
       <c r="H9">
-        <v>133.570078285869</v>
+        <v>456.280182</v>
       </c>
       <c r="I9">
-        <v>0.07488784691075336</v>
+        <v>0.08268866520392831</v>
       </c>
       <c r="J9">
-        <v>0.07488784691075336</v>
+        <v>0.0826886652039283</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.4999893440293</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N9">
-        <v>18.4999893440293</v>
+        <v>55.542812</v>
       </c>
       <c r="O9">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210787</v>
       </c>
       <c r="P9">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210786</v>
       </c>
       <c r="Q9">
-        <v>2471.045024969736</v>
+        <v>2815.898263127976</v>
       </c>
       <c r="R9">
-        <v>2471.045024969736</v>
+        <v>25343.08436815179</v>
       </c>
       <c r="S9">
-        <v>0.04355589038665834</v>
+        <v>0.03187374089622819</v>
       </c>
       <c r="T9">
-        <v>0.04355589038665834</v>
+        <v>0.03187374089622819</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>133.570078285869</v>
+        <v>152.093394</v>
       </c>
       <c r="H10">
-        <v>133.570078285869</v>
+        <v>456.280182</v>
       </c>
       <c r="I10">
-        <v>0.07488784691075336</v>
+        <v>0.08268866520392831</v>
       </c>
       <c r="J10">
-        <v>0.07488784691075336</v>
+        <v>0.0826886652039283</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.27968783304893</v>
+        <v>3.571174000000001</v>
       </c>
       <c r="N10">
-        <v>3.27968783304893</v>
+        <v>10.713522</v>
       </c>
       <c r="O10">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827505</v>
       </c>
       <c r="P10">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827504</v>
       </c>
       <c r="Q10">
-        <v>438.0681606135576</v>
+        <v>543.1519742245562</v>
       </c>
       <c r="R10">
-        <v>438.0681606135576</v>
+        <v>4888.367768021005</v>
       </c>
       <c r="S10">
-        <v>0.007721611137297203</v>
+        <v>0.006148050702114984</v>
       </c>
       <c r="T10">
-        <v>0.007721611137297203</v>
+        <v>0.006148050702114981</v>
       </c>
     </row>
   </sheetData>
